--- a/Medsol/src/test/java/com/medsol/testdata/LoginData.xlsx
+++ b/Medsol/src/test/java/com/medsol/testdata/LoginData.xlsx
@@ -4,26 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23625" windowHeight="8595"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>nikhil.tirlapur@hms.com</t>
   </si>
   <si>
@@ -46,13 +41,19 @@
   </si>
   <si>
     <t>varun.kumar1@hms.com</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pwd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +75,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,20 +100,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,61 +436,61 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
